--- a/数据整理/stocks/A股/深证主板/001269-欧晶科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/001269-欧晶科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,6 +515,1960 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3353</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5742</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3686</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013526</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015092</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015669</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015382</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015381</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>017511</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015093</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
